--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_13.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_13.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N219"/>
+  <dimension ref="A1:N220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1786160469055176</v>
+        <v>0.0008141994476318359</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008948326110839844</v>
+        <v>0.0005679130554199219</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007400989532470703</v>
+        <v>0.00701594352722168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 0), (2, 0), (2, 2), (1, 3), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 2], [3, 0], [2, 0], [2, 2], [1, 3], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 1), (2, 0), (1, 0), (0, 1), (0, 0), (1, 1), (2, 1), (3, 0), (2, 2), (3, 3), (1, 2), (0, 2)]</t>
+          <t>[[3, 2], [3, 1], [2, 0], [1, 0], [0, 1], [0, 0], [1, 1], [2, 1], [3, 0], [2, 2], [3, 3], [1, 2], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (1, 2), (0, 0), (1, 3), (1, 0), (0, 3), (2, 0), (2, 3), (2, 1), (2, 2), (3, 1)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [0, 3], [2, 0], [2, 3], [2, 1], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1988,110 +1988,120 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>27</v>
+        <v>0.9983505081702928</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>174</v>
+        <v>27</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>4</v>
+        <v>174</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.2145309448242188</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.03876471519470215</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I219" t="inlineStr">
+      <c r="I220" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr">
+      <c r="J220" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K219" t="inlineStr">
+      <c r="K220" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L219" t="inlineStr">
+      <c r="L220" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr">
+      <c r="M220" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N219" t="inlineStr">
+      <c r="N220" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_13.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_13.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0008141994476318359</v>
+        <v>0.0003309249877929688</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005679130554199219</v>
+        <v>0.0001718997955322266</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00701594352722168</v>
+        <v>0.0164039134979248</v>
       </c>
     </row>
     <row r="8">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.03876471519470215</v>
+        <v>0.03148412704467773</v>
       </c>
     </row>
     <row r="220">
